--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.045432210488</v>
+        <v>0.002829337334666667</v>
       </c>
       <c r="R2">
-        <v>0.408889894392</v>
+        <v>0.025464036012</v>
       </c>
       <c r="S2">
-        <v>0.001001479039521659</v>
+        <v>4.066485846705306E-05</v>
       </c>
       <c r="T2">
-        <v>0.001110061525251582</v>
+        <v>4.2009408482051E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H3">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>0.289749585804</v>
+        <v>0.1080961992713333</v>
       </c>
       <c r="R3">
-        <v>2.607746272236</v>
+        <v>0.9728657934420001</v>
       </c>
       <c r="S3">
-        <v>0.006387057415342648</v>
+        <v>0.001553620556423685</v>
       </c>
       <c r="T3">
-        <v>0.007079555753589343</v>
+        <v>0.001604989739083771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H4">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I4">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J4">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,60 +682,60 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.137908114386</v>
+        <v>0.01240302529266667</v>
       </c>
       <c r="R4">
-        <v>0.8274486863159999</v>
+        <v>0.074418151756</v>
       </c>
       <c r="S4">
-        <v>0.003039959633353386</v>
+        <v>0.0001782633911869651</v>
       </c>
       <c r="T4">
-        <v>0.002246372344724125</v>
+        <v>0.0001227716821529708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>26.62426633333333</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H5">
-        <v>79.872799</v>
+        <v>0.720422</v>
       </c>
       <c r="I5">
-        <v>0.4313414759059189</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J5">
-        <v>0.4316514220927074</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>1.879158467317556</v>
+        <v>0.02923488485377778</v>
       </c>
       <c r="R5">
-        <v>16.912426205858</v>
+        <v>0.263113963684</v>
       </c>
       <c r="S5">
-        <v>0.04142298595520141</v>
+        <v>0.0004201805278971892</v>
       </c>
       <c r="T5">
-        <v>0.04591415412135673</v>
+        <v>0.0004340734505921923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H6">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I6">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J6">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>11.98456737448767</v>
+        <v>0.007583979144000001</v>
       </c>
       <c r="R6">
-        <v>107.861106370389</v>
+        <v>0.068255812296</v>
       </c>
       <c r="S6">
-        <v>0.2641802565704938</v>
+        <v>0.0001090012967803912</v>
       </c>
       <c r="T6">
-        <v>0.2928232414031013</v>
+        <v>0.0001126053347813991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H7">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I7">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J7">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2142455</v>
+        <v>0.450137</v>
       </c>
       <c r="N7">
-        <v>0.428491</v>
+        <v>1.350411</v>
       </c>
       <c r="O7">
-        <v>0.291505084495164</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P7">
-        <v>0.2152524509656171</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q7">
-        <v>5.704129252718167</v>
+        <v>0.289749585804</v>
       </c>
       <c r="R7">
-        <v>34.224775516309</v>
+        <v>2.607746272236</v>
       </c>
       <c r="S7">
-        <v>0.1257382333802236</v>
+        <v>0.004164447184589622</v>
       </c>
       <c r="T7">
-        <v>0.0929140265682494</v>
+        <v>0.004302141196952527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.643692</v>
+      </c>
+      <c r="H8">
+        <v>1.931076</v>
+      </c>
+      <c r="I8">
+        <v>0.005877564804149375</v>
+      </c>
+      <c r="J8">
+        <v>0.005907358183739276</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="G8">
-        <v>0.132963</v>
-      </c>
-      <c r="H8">
-        <v>0.265926</v>
-      </c>
-      <c r="I8">
-        <v>0.002154142237867939</v>
-      </c>
-      <c r="J8">
-        <v>0.001437126750390021</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.07058066666666667</v>
+        <v>0.051649</v>
       </c>
       <c r="N8">
-        <v>0.211742</v>
+        <v>0.103298</v>
       </c>
       <c r="O8">
-        <v>0.09603293044844197</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P8">
-        <v>0.1063685922746608</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q8">
-        <v>0.009384617182</v>
+        <v>0.03324604810800001</v>
       </c>
       <c r="R8">
-        <v>0.05630770309200001</v>
+        <v>0.199476288648</v>
       </c>
       <c r="S8">
-        <v>0.0002068685917052229</v>
+        <v>0.0004778312661186914</v>
       </c>
       <c r="T8">
-        <v>0.0001528651493592444</v>
+        <v>0.0003290869086247091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.132963</v>
+        <v>0.643692</v>
       </c>
       <c r="H9">
-        <v>0.265926</v>
+        <v>1.931076</v>
       </c>
       <c r="I9">
-        <v>0.002154142237867939</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J9">
-        <v>0.001437126750390021</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4501370000000001</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N9">
-        <v>1.350411</v>
+        <v>0.365222</v>
       </c>
       <c r="O9">
-        <v>0.612461985056394</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P9">
-        <v>0.678378956759722</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q9">
-        <v>0.05985156593100001</v>
+        <v>0.078363493208</v>
       </c>
       <c r="R9">
-        <v>0.3591093955860001</v>
+        <v>0.7052714388719999</v>
       </c>
       <c r="S9">
-        <v>0.001319330231098421</v>
+        <v>0.001126285056660669</v>
       </c>
       <c r="T9">
-        <v>0.0009749165456610718</v>
+        <v>0.001163524743380642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,75 +1021,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H10">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I10">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J10">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2142455</v>
+        <v>0.011782</v>
       </c>
       <c r="N10">
-        <v>0.428491</v>
+        <v>0.035346</v>
       </c>
       <c r="O10">
-        <v>0.291505084495164</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P10">
-        <v>0.2152524509656171</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q10">
-        <v>0.0284867244165</v>
+        <v>0.7147079059273334</v>
       </c>
       <c r="R10">
-        <v>0.113946897666</v>
+        <v>6.432371153346001</v>
       </c>
       <c r="S10">
-        <v>0.0006279434150642953</v>
+        <v>0.01027219182517271</v>
       </c>
       <c r="T10">
-        <v>0.0003093450553697046</v>
+        <v>0.01061183337793473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,60 +1098,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.323415</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H11">
-        <v>102.970245</v>
+        <v>181.983001</v>
       </c>
       <c r="I11">
-        <v>0.5560758857679955</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J11">
-        <v>0.5564754615333375</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07058066666666667</v>
+        <v>0.450137</v>
       </c>
       <c r="N11">
-        <v>0.211742</v>
+        <v>1.350411</v>
       </c>
       <c r="O11">
-        <v>0.09603293044844197</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P11">
-        <v>0.1063685922746608</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q11">
-        <v>2.422569512976667</v>
+        <v>27.30576070704567</v>
       </c>
       <c r="R11">
-        <v>21.80312561679</v>
+        <v>245.751846363411</v>
       </c>
       <c r="S11">
-        <v>0.05340159686201367</v>
+        <v>0.3924540495338456</v>
       </c>
       <c r="T11">
-        <v>0.05919151147869329</v>
+        <v>0.4054302190836367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,60 +1160,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.323415</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H12">
-        <v>102.970245</v>
+        <v>181.983001</v>
       </c>
       <c r="I12">
-        <v>0.5560758857679955</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J12">
-        <v>0.5564754615333375</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4501370000000001</v>
+        <v>0.051649</v>
       </c>
       <c r="N12">
-        <v>1.350411</v>
+        <v>0.103298</v>
       </c>
       <c r="O12">
-        <v>0.612461985056394</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P12">
-        <v>0.678378956759722</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q12">
-        <v>15.450239057855</v>
+        <v>3.133080006216333</v>
       </c>
       <c r="R12">
-        <v>139.052151520695</v>
+        <v>18.798480037298</v>
       </c>
       <c r="S12">
-        <v>0.3405753408394591</v>
+        <v>0.0450304223033734</v>
       </c>
       <c r="T12">
-        <v>0.3775012430573703</v>
+        <v>0.03101287739132864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,542 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.323415</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H13">
-        <v>102.970245</v>
+        <v>181.983001</v>
       </c>
       <c r="I13">
-        <v>0.5560758857679955</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J13">
-        <v>0.5564754615333375</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.365222</v>
+      </c>
+      <c r="O13">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P13">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q13">
+        <v>7.384910621246889</v>
+      </c>
+      <c r="R13">
+        <v>66.46419559122199</v>
+      </c>
+      <c r="S13">
+        <v>0.1061401698289263</v>
+      </c>
+      <c r="T13">
+        <v>0.1096496070264267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="M13">
-        <v>0.2142455</v>
-      </c>
-      <c r="N13">
-        <v>0.428491</v>
-      </c>
-      <c r="O13">
-        <v>0.291505084495164</v>
-      </c>
-      <c r="P13">
-        <v>0.2152524509656171</v>
-      </c>
-      <c r="Q13">
-        <v>7.353637208382501</v>
-      </c>
-      <c r="R13">
-        <v>44.121823250295</v>
-      </c>
-      <c r="S13">
-        <v>0.1620989480665227</v>
-      </c>
-      <c r="T13">
-        <v>0.1197827069972739</v>
+      <c r="G14">
+        <v>1.6570225</v>
+      </c>
+      <c r="H14">
+        <v>3.314045</v>
+      </c>
+      <c r="I14">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J14">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.011782</v>
+      </c>
+      <c r="N14">
+        <v>0.035346</v>
+      </c>
+      <c r="O14">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P14">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q14">
+        <v>0.019523039095</v>
+      </c>
+      <c r="R14">
+        <v>0.11713823457</v>
+      </c>
+      <c r="S14">
+        <v>0.0002805963120471992</v>
+      </c>
+      <c r="T14">
+        <v>0.0001932493318262057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>1.6570225</v>
+      </c>
+      <c r="H15">
+        <v>3.314045</v>
+      </c>
+      <c r="I15">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J15">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.450137</v>
+      </c>
+      <c r="N15">
+        <v>1.350411</v>
+      </c>
+      <c r="O15">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P15">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q15">
+        <v>0.7458871370825001</v>
+      </c>
+      <c r="R15">
+        <v>4.475322822495</v>
+      </c>
+      <c r="S15">
+        <v>0.01072031761296809</v>
+      </c>
+      <c r="T15">
+        <v>0.00738318405026759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>1.6570225</v>
+      </c>
+      <c r="H16">
+        <v>3.314045</v>
+      </c>
+      <c r="I16">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J16">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.051649</v>
+      </c>
+      <c r="N16">
+        <v>0.103298</v>
+      </c>
+      <c r="O16">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P16">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q16">
+        <v>0.0855835551025</v>
+      </c>
+      <c r="R16">
+        <v>0.34233422041</v>
+      </c>
+      <c r="S16">
+        <v>0.001230055926067373</v>
+      </c>
+      <c r="T16">
+        <v>0.0005647674271199964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>1.6570225</v>
+      </c>
+      <c r="H17">
+        <v>3.314045</v>
+      </c>
+      <c r="I17">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J17">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.365222</v>
+      </c>
+      <c r="O17">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P17">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q17">
+        <v>0.2017270238316667</v>
+      </c>
+      <c r="R17">
+        <v>1.21036214299</v>
+      </c>
+      <c r="S17">
+        <v>0.002899336453304536</v>
+      </c>
+      <c r="T17">
+        <v>0.001996800414989828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H18">
+        <v>138.944788</v>
+      </c>
+      <c r="I18">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J18">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.011782</v>
+      </c>
+      <c r="N18">
+        <v>0.035346</v>
+      </c>
+      <c r="O18">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P18">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q18">
+        <v>0.5456824974053335</v>
+      </c>
+      <c r="R18">
+        <v>4.911142476648001</v>
+      </c>
+      <c r="S18">
+        <v>0.007842861737640846</v>
+      </c>
+      <c r="T18">
+        <v>0.008102179494163116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H19">
+        <v>138.944788</v>
+      </c>
+      <c r="I19">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J19">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.450137</v>
+      </c>
+      <c r="N19">
+        <v>1.350411</v>
+      </c>
+      <c r="O19">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P19">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q19">
+        <v>20.84806334531867</v>
+      </c>
+      <c r="R19">
+        <v>187.632570107868</v>
+      </c>
+      <c r="S19">
+        <v>0.2996403203188285</v>
+      </c>
+      <c r="T19">
+        <v>0.3095476804416994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H20">
+        <v>138.944788</v>
+      </c>
+      <c r="I20">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J20">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.051649</v>
+      </c>
+      <c r="N20">
+        <v>0.103298</v>
+      </c>
+      <c r="O20">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P20">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q20">
+        <v>2.392119785137333</v>
+      </c>
+      <c r="R20">
+        <v>14.352718710824</v>
+      </c>
+      <c r="S20">
+        <v>0.03438091715221626</v>
+      </c>
+      <c r="T20">
+        <v>0.02367846255270926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H21">
+        <v>138.944788</v>
+      </c>
+      <c r="I21">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J21">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.365222</v>
+      </c>
+      <c r="O21">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P21">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q21">
+        <v>5.638410373659556</v>
+      </c>
+      <c r="R21">
+        <v>50.745693362936</v>
+      </c>
+      <c r="S21">
+        <v>0.08103846685748499</v>
+      </c>
+      <c r="T21">
+        <v>0.08371793694384772</v>
       </c>
     </row>
   </sheetData>
